--- a/monopoly.xlsx
+++ b/monopoly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumithsalluri/Desktop/monopoly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ACB3B5-5430-5C42-AFC1-FE80CBB6072C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDED411-2EA9-1845-AF02-EE4D2AE396AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -351,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,7 +701,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
@@ -732,11 +733,12 @@
         <f xml:space="preserve"> (E3/1000000) * 100</f>
         <v>2.8010000000000002</v>
       </c>
-      <c r="H3">
-        <v>28010</v>
+      <c r="H3" s="22">
+        <v>31798</v>
       </c>
       <c r="I3">
-        <v>31798</v>
+        <f xml:space="preserve"> (H3/1000000) * 100</f>
+        <v>3.1798000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,11 +759,12 @@
         <f xml:space="preserve"> (E4/1000000) * 100</f>
         <v>2.1860999999999997</v>
       </c>
-      <c r="H4">
-        <v>21861</v>
+      <c r="H4" s="22">
+        <v>26308</v>
       </c>
       <c r="I4">
-        <v>26308</v>
+        <f xml:space="preserve"> (H4/1000000) * 100</f>
+        <v>2.6308000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -782,11 +785,12 @@
         <f xml:space="preserve"> (E5/1000000) * 100</f>
         <v>2.3292999999999999</v>
       </c>
-      <c r="H5">
-        <v>23293</v>
+      <c r="H5" s="22">
+        <v>40642</v>
       </c>
       <c r="I5">
-        <v>40642</v>
+        <f xml:space="preserve"> (H5/1000000) * 100</f>
+        <v>4.0641999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,11 +811,12 @@
         <f xml:space="preserve"> (E6/1000000) * 100</f>
         <v>2.2149999999999999</v>
       </c>
-      <c r="H6">
-        <v>22150</v>
+      <c r="H6" s="22">
+        <v>21604</v>
       </c>
       <c r="I6">
-        <v>21604</v>
+        <f xml:space="preserve"> (H6/1000000) * 100</f>
+        <v>2.1604000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -832,11 +837,12 @@
         <f xml:space="preserve"> (E7/1000000) * 100</f>
         <v>2.4245000000000001</v>
       </c>
-      <c r="H7">
-        <v>24245</v>
+      <c r="H7" s="22">
+        <v>24196</v>
       </c>
       <c r="I7">
-        <v>24196</v>
+        <f xml:space="preserve"> (H7/1000000) * 100</f>
+        <v>2.4196</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -857,11 +863,12 @@
         <f xml:space="preserve"> (E8/1000000) * 100</f>
         <v>2.9018999999999999</v>
       </c>
-      <c r="H8">
-        <v>29019</v>
+      <c r="H8" s="22">
+        <v>29132</v>
       </c>
       <c r="I8">
-        <v>29132</v>
+        <f xml:space="preserve"> (H8/1000000) * 100</f>
+        <v>2.9132000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -882,11 +889,12 @@
         <f xml:space="preserve"> (E9/1000000) * 100</f>
         <v>2.3475000000000001</v>
       </c>
-      <c r="H9">
-        <v>23475</v>
+      <c r="H9" s="22">
+        <v>23722</v>
       </c>
       <c r="I9">
-        <v>23722</v>
+        <f xml:space="preserve"> (H9/1000000) * 100</f>
+        <v>2.3721999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -907,11 +915,12 @@
         <f xml:space="preserve"> (E10/1000000) * 100</f>
         <v>3.2767999999999997</v>
       </c>
-      <c r="H10">
-        <v>32768</v>
+      <c r="H10" s="22">
+        <v>34057</v>
       </c>
       <c r="I10">
-        <v>34057</v>
+        <f xml:space="preserve"> (H10/1000000) * 100</f>
+        <v>3.4056999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -932,11 +941,12 @@
         <f xml:space="preserve"> (E11/1000000) * 100</f>
         <v>2.4309000000000003</v>
       </c>
-      <c r="H11">
-        <v>24309</v>
+      <c r="H11" s="22">
+        <v>24374</v>
       </c>
       <c r="I11">
-        <v>24374</v>
+        <f xml:space="preserve"> (H11/1000000) * 100</f>
+        <v>2.4373999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -957,11 +967,12 @@
         <f xml:space="preserve"> (E12/1000000) * 100</f>
         <v>2.3945000000000003</v>
       </c>
-      <c r="H12">
-        <v>23945</v>
+      <c r="H12" s="22">
+        <v>24184</v>
       </c>
       <c r="I12">
-        <v>24184</v>
+        <f xml:space="preserve"> (H12/1000000) * 100</f>
+        <v>2.4184000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -983,11 +994,12 @@
         <f xml:space="preserve"> (E13/1000000) * 100</f>
         <v>5.4502000000000006</v>
       </c>
-      <c r="H13">
-        <v>54502</v>
+      <c r="H13" s="22">
+        <v>59388</v>
       </c>
       <c r="I13">
-        <v>59388</v>
+        <f xml:space="preserve"> (H13/1000000) * 100</f>
+        <v>5.9388000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1008,11 +1020,12 @@
         <f xml:space="preserve"> (E14/1000000) * 100</f>
         <v>2.8614000000000002</v>
       </c>
-      <c r="H14">
-        <v>28614</v>
+      <c r="H14" s="22">
+        <v>27492</v>
       </c>
       <c r="I14">
-        <v>27492</v>
+        <f xml:space="preserve"> (H14/1000000) * 100</f>
+        <v>2.7492000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1033,11 +1046,12 @@
         <f xml:space="preserve"> (E15/1000000) * 100</f>
         <v>2.5992000000000002</v>
       </c>
-      <c r="H15">
-        <v>25992</v>
+      <c r="H15" s="22">
+        <v>25401</v>
       </c>
       <c r="I15">
-        <v>25401</v>
+        <f xml:space="preserve"> (H15/1000000) * 100</f>
+        <v>2.5400999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1058,11 +1072,12 @@
         <f xml:space="preserve"> (E16/1000000) * 100</f>
         <v>2.4188999999999998</v>
       </c>
-      <c r="H16">
-        <v>24189</v>
+      <c r="H16" s="22">
+        <v>24570</v>
       </c>
       <c r="I16">
-        <v>24570</v>
+        <f xml:space="preserve"> (H16/1000000) * 100</f>
+        <v>2.4570000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,11 +1098,12 @@
         <f xml:space="preserve"> (E17/1000000) * 100</f>
         <v>2.3767</v>
       </c>
-      <c r="H17">
-        <v>23767</v>
+      <c r="H17" s="22">
+        <v>24370</v>
       </c>
       <c r="I17">
-        <v>24370</v>
+        <f xml:space="preserve"> (H17/1000000) * 100</f>
+        <v>2.4369999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1108,11 +1124,12 @@
         <f xml:space="preserve"> (E18/1000000) * 100</f>
         <v>2.7526999999999999</v>
       </c>
-      <c r="H18">
-        <v>27527</v>
+      <c r="H18" s="22">
+        <v>28430</v>
       </c>
       <c r="I18">
-        <v>28430</v>
+        <f xml:space="preserve"> (H18/1000000) * 100</f>
+        <v>2.843</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1133,11 +1150,12 @@
         <f xml:space="preserve"> (E19/1000000) * 100</f>
         <v>2.6630000000000003</v>
       </c>
-      <c r="H19">
-        <v>26630</v>
+      <c r="H19" s="22">
+        <v>27163</v>
       </c>
       <c r="I19">
-        <v>27163</v>
+        <f xml:space="preserve"> (H19/1000000) * 100</f>
+        <v>2.7162999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1158,11 +1176,12 @@
         <f xml:space="preserve"> (E20/1000000) * 100</f>
         <v>2.91</v>
       </c>
-      <c r="H20">
-        <v>29100</v>
+      <c r="H20" s="22">
+        <v>54412</v>
       </c>
       <c r="I20">
-        <v>54412</v>
+        <f xml:space="preserve"> (H20/1000000) * 100</f>
+        <v>5.4412000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1183,11 +1202,12 @@
         <f xml:space="preserve"> (E21/1000000) * 100</f>
         <v>2.7566999999999999</v>
       </c>
-      <c r="H21">
-        <v>27567</v>
+      <c r="H21" s="22">
+        <v>28494</v>
       </c>
       <c r="I21">
-        <v>28494</v>
+        <f xml:space="preserve"> (H21/1000000) * 100</f>
+        <v>2.8493999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1208,11 +1228,12 @@
         <f xml:space="preserve"> (E22/1000000) * 100</f>
         <v>3.0526</v>
       </c>
-      <c r="H22">
-        <v>30526</v>
+      <c r="H22" s="22">
+        <v>31062</v>
       </c>
       <c r="I22">
-        <v>31062</v>
+        <f xml:space="preserve"> (H22/1000000) * 100</f>
+        <v>3.1061999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1233,11 +1254,12 @@
         <f xml:space="preserve"> (E23/1000000) * 100</f>
         <v>2.7664999999999997</v>
       </c>
-      <c r="H23">
-        <v>27665</v>
+      <c r="H23" s="22">
+        <v>27216</v>
       </c>
       <c r="I23">
-        <v>27216</v>
+        <f xml:space="preserve"> (H23/1000000) * 100</f>
+        <v>2.7216</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,11 +1280,12 @@
         <f xml:space="preserve"> (E24/1000000) * 100</f>
         <v>2.7679999999999998</v>
       </c>
-      <c r="H24">
-        <v>27680</v>
+      <c r="H24" s="22">
+        <v>28188</v>
       </c>
       <c r="I24">
-        <v>28188</v>
+        <f xml:space="preserve"> (H24/1000000) * 100</f>
+        <v>2.8188</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1283,11 +1306,12 @@
         <f xml:space="preserve"> (E25/1000000) * 100</f>
         <v>3.7502</v>
       </c>
-      <c r="H25">
-        <v>37502</v>
+      <c r="H25" s="22">
+        <v>38184</v>
       </c>
       <c r="I25">
-        <v>38184</v>
+        <f xml:space="preserve"> (H25/1000000) * 100</f>
+        <v>3.8184000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1308,11 +1332,12 @@
         <f xml:space="preserve"> (E26/1000000) * 100</f>
         <v>2.6844000000000001</v>
       </c>
-      <c r="H26">
-        <v>26844</v>
+      <c r="H26" s="22">
+        <v>26836</v>
       </c>
       <c r="I26">
-        <v>26836</v>
+        <f xml:space="preserve"> (H26/1000000) * 100</f>
+        <v>2.6835999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1333,11 +1358,12 @@
         <f xml:space="preserve"> (E27/1000000) * 100</f>
         <v>3.2315000000000005</v>
       </c>
-      <c r="H27">
-        <v>32315</v>
+      <c r="H27" s="22">
+        <v>31332</v>
       </c>
       <c r="I27">
-        <v>31332</v>
+        <f xml:space="preserve"> (H27/1000000) * 100</f>
+        <v>3.1332</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1358,11 +1384,12 @@
         <f xml:space="preserve"> (E28/1000000) * 100</f>
         <v>2.8465000000000003</v>
       </c>
-      <c r="H28">
-        <v>28465</v>
+      <c r="H28" s="22">
+        <v>28482</v>
       </c>
       <c r="I28">
-        <v>28482</v>
+        <f xml:space="preserve"> (H28/1000000) * 100</f>
+        <v>2.8481999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,11 +1410,12 @@
         <f xml:space="preserve"> (E29/1000000) * 100</f>
         <v>2.7206000000000001</v>
       </c>
-      <c r="H29">
-        <v>27206</v>
+      <c r="H29" s="22">
+        <v>26709</v>
       </c>
       <c r="I29">
-        <v>26709</v>
+        <f xml:space="preserve"> (H29/1000000) * 100</f>
+        <v>2.6709000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1408,11 +1436,12 @@
         <f xml:space="preserve"> (E30/1000000) * 100</f>
         <v>2.6141000000000001</v>
       </c>
-      <c r="H30">
-        <v>26141</v>
+      <c r="H30" s="22">
+        <v>26348</v>
       </c>
       <c r="I30">
-        <v>26348</v>
+        <f xml:space="preserve"> (H30/1000000) * 100</f>
+        <v>2.6347999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1433,11 +1462,12 @@
         <f xml:space="preserve"> (E31/1000000) * 100</f>
         <v>2.7942</v>
       </c>
-      <c r="H31">
-        <v>27942</v>
+      <c r="H31" s="22">
+        <v>28138</v>
       </c>
       <c r="I31">
-        <v>28138</v>
+        <f xml:space="preserve"> (H31/1000000) * 100</f>
+        <v>2.8138000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1458,11 +1488,12 @@
         <f xml:space="preserve"> (E32/1000000) * 100</f>
         <v>2.56</v>
       </c>
-      <c r="H32">
-        <v>25600</v>
+      <c r="H32" s="22">
+        <v>25363</v>
       </c>
       <c r="I32">
-        <v>25363</v>
+        <f xml:space="preserve"> (H32/1000000) * 100</f>
+        <v>2.5363000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1483,11 +1514,12 @@
         <f xml:space="preserve"> (E33/1000000) * 100</f>
         <v>2.6229999999999998</v>
       </c>
-      <c r="H33">
-        <v>26230</v>
+      <c r="H33" s="22">
+        <v>26399</v>
       </c>
       <c r="I33">
-        <v>26399</v>
+        <f xml:space="preserve"> (H33/1000000) * 100</f>
+        <v>2.6398999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1508,11 +1540,12 @@
         <f xml:space="preserve"> (E34/1000000) * 100</f>
         <v>2.6446999999999998</v>
       </c>
-      <c r="H34">
-        <v>26447</v>
+      <c r="H34" s="22">
+        <v>26336</v>
       </c>
       <c r="I34">
-        <v>26336</v>
+        <f xml:space="preserve"> (H34/1000000) * 100</f>
+        <v>2.6335999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,11 +1566,12 @@
         <f xml:space="preserve"> (E35/1000000) * 100</f>
         <v>2.6561000000000003</v>
       </c>
-      <c r="H35">
-        <v>26561</v>
+      <c r="H35" s="22">
+        <v>26638</v>
       </c>
       <c r="I35">
-        <v>26638</v>
+        <f xml:space="preserve"> (H35/1000000) * 100</f>
+        <v>2.6637999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1558,11 +1592,12 @@
         <f xml:space="preserve"> (E36/1000000) * 100</f>
         <v>2.6541999999999999</v>
       </c>
-      <c r="H36">
-        <v>26542</v>
+      <c r="H36" s="22">
+        <v>47342</v>
       </c>
       <c r="I36">
-        <v>47342</v>
+        <f xml:space="preserve"> (H36/1000000) * 100</f>
+        <v>4.7342000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1583,11 +1618,12 @@
         <f xml:space="preserve"> (E37/1000000) * 100</f>
         <v>2.5726</v>
       </c>
-      <c r="H37">
-        <v>25726</v>
+      <c r="H37" s="22">
+        <v>25323</v>
       </c>
       <c r="I37">
-        <v>25323</v>
+        <f xml:space="preserve"> (H37/1000000) * 100</f>
+        <v>2.5322999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1608,11 +1644,12 @@
         <f xml:space="preserve"> (E38/1000000) * 100</f>
         <v>2.4097</v>
       </c>
-      <c r="H38">
-        <v>24097</v>
+      <c r="H38" s="22">
+        <v>24036</v>
       </c>
       <c r="I38">
-        <v>24036</v>
+        <f xml:space="preserve"> (H38/1000000) * 100</f>
+        <v>2.4036</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1633,11 +1670,12 @@
         <f xml:space="preserve"> (E39/1000000) * 100</f>
         <v>3.3637000000000001</v>
       </c>
-      <c r="H39">
-        <v>33637</v>
+      <c r="H39" s="22">
+        <v>33403</v>
       </c>
       <c r="I39">
-        <v>33403</v>
+        <f xml:space="preserve"> (H39/1000000) * 100</f>
+        <v>3.3403</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1658,11 +1696,12 @@
         <f xml:space="preserve"> (E40/1000000) * 100</f>
         <v>2.1846999999999999</v>
       </c>
-      <c r="H40">
-        <v>21847</v>
+      <c r="H40" s="22">
+        <v>21515</v>
       </c>
       <c r="I40">
-        <v>21515</v>
+        <f xml:space="preserve"> (H40/1000000) * 100</f>
+        <v>2.1515</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1683,11 +1722,12 @@
         <f xml:space="preserve"> (E41/1000000) * 100</f>
         <v>2.3355999999999999</v>
       </c>
-      <c r="H41">
-        <v>23356</v>
+      <c r="H41" s="22">
+        <v>22901</v>
       </c>
       <c r="I41">
-        <v>22901</v>
+        <f xml:space="preserve"> (H41/1000000) * 100</f>
+        <v>2.2901000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1708,252 +1748,253 @@
         <f xml:space="preserve"> (E42/1000000) * 100</f>
         <v>2.7128000000000001</v>
       </c>
-      <c r="H42">
-        <v>27128</v>
+      <c r="H42" s="22">
+        <v>26217</v>
       </c>
       <c r="I42">
-        <v>26217</v>
+        <f xml:space="preserve"> (H42/1000000) * 100</f>
+        <v>2.6217000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C46">
+      <c r="C45">
         <f>SUM(C9, C11, C12)</f>
         <v>6.9918000000000005</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F46">
+      <c r="F45">
         <f>SUM(F9, F11, F12)</f>
         <v>7.1729000000000003</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I46">
+      <c r="I45">
         <f>SUM(I9, I11, I12)</f>
-        <v>72280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+        <v>7.2279999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C46">
         <f>SUM(C14, C16, C17)</f>
         <v>7.3302999999999994</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F47">
+      <c r="F46">
         <f>SUM(F14, F16, F17)</f>
         <v>7.657</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I47">
+      <c r="I46">
         <f>SUM(I14, I16, I17)</f>
-        <v>76432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="16" t="s">
+        <v>7.6432000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C48">
+      <c r="C47">
         <f>SUM(C19, C21, C22)</f>
         <v>8.0601000000000003</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F48">
+      <c r="F47">
         <f>SUM(F19, F21, F22)</f>
         <v>8.4723000000000006</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I48">
+      <c r="I47">
         <f>SUM(I19, I21, I22)</f>
-        <v>86719</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
+        <v>8.6718999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C49">
+      <c r="C48">
         <f>SUM(C24, C26, C27)</f>
         <v>7.9542999999999999</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F49">
+      <c r="F48">
         <f>SUM(F24, F26, F27)</f>
         <v>8.6839000000000013</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I49">
+      <c r="I48">
         <f>SUM(I24, I26, I27)</f>
-        <v>86356</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
+        <v>8.6356000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C50">
+      <c r="C49">
         <f>SUM(C29, C30, C32)</f>
         <v>8.0114999999999998</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F50">
+      <c r="F49">
         <f>SUM(F29, F30, F32)</f>
         <v>7.8947000000000003</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I50">
+      <c r="I49">
         <f>SUM(I29, I30, I32)</f>
-        <v>78420</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="19" t="s">
+        <v>7.8420000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C51">
+      <c r="C50">
         <f>SUM(C34, C35, C37)</f>
         <v>7.8224</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F51">
+      <c r="F50">
         <f>SUM(F34, F35, F37)</f>
         <v>7.8734000000000002</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I51">
+      <c r="I50">
         <f>SUM(I34, I35, I37)</f>
-        <v>78297</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+        <v>7.829699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C52">
+      <c r="C51">
         <f>SUM(C40, C42)</f>
         <v>4.4779</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E51" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F52">
+      <c r="F51">
         <f>SUM(F40, F42)</f>
         <v>4.8975</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H51" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="I51">
         <f>SUM(I40, I42)</f>
-        <v>47732</v>
+        <v>4.7732000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C15, C31)</f>
+        <v>5.0104000000000006</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F15, F31)</f>
+        <v>5.3933999999999997</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <f>SUM(I15, I31)</f>
+        <v>5.3538999999999994</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <f>SUM(C15, C31)</f>
-        <v>5.0104000000000006</v>
+        <f>SUM(C8, C18, C28, C38)</f>
+        <v>9.9971000000000014</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54">
-        <f>SUM(F15, F31)</f>
-        <v>5.3933999999999997</v>
+        <f>SUM(F8, F18, F28, F38)</f>
+        <v>10.910800000000002</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I54">
-        <f>SUM(I15, I31)</f>
-        <v>53539</v>
+        <f>SUM(I8, I18, I28, I38)</f>
+        <v>11.007999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55">
-        <f>SUM(C8, C18, C28, C38)</f>
-        <v>9.9971000000000014</v>
-      </c>
-      <c r="E55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55">
-        <f>SUM(F8, F18, F28, F38)</f>
-        <v>10.910800000000002</v>
-      </c>
-      <c r="H55" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55">
-        <f>SUM(I8, I18, I28, I38)</f>
-        <v>110080</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56">
         <f>SUM(C5, C7, C10, C13, C20, C23, C25, C33, C36, C39, C41)</f>
         <v>27.249600000000001</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E55" t="s">
         <v>44</v>
       </c>
-      <c r="F56">
+      <c r="F55">
         <f>SUM(F5, F7, F10, F13, F20, F23, F25, F33, F36, F39, F41)</f>
         <v>33.884</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H55" t="s">
         <v>44</v>
       </c>
-      <c r="I56">
+      <c r="I55">
         <f>SUM(I5, I7, I10, I13, I20, I23, I25, I33, I36, I39, I41)</f>
-        <v>408140</v>
+        <v>40.814</v>
       </c>
     </row>
   </sheetData>
@@ -1963,6 +2004,26 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F42">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:F52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1972,7 +2033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:F53">
+  <conditionalFormatting sqref="C45:C52">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1982,17 +2043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C42">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C53">
+  <conditionalFormatting sqref="I45:I52">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2003,16 +2054,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I42">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
